--- a/Assets/LcoalizationSheets/Localization.xlsx
+++ b/Assets/LcoalizationSheets/Localization.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\Naninovel U Package\Assets\LcoalizationSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754AE64C-D1D6-4F69-B13E-843D38B02EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF877D3-B686-421A-B906-AA502E9E72C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{466C8753-8B6A-41DD-92D5-4EFA8B06EAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts&gt;Main" sheetId="7" r:id="rId1"/>
+    <sheet name="Text&gt;DefaultUI" sheetId="8" r:id="rId2"/>
+    <sheet name="Text&gt;Locales" sheetId="9" r:id="rId3"/>
+    <sheet name="Text&gt;Tips" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="606">
   <si>
     <t>Template</t>
   </si>
@@ -47,26 +50,1815 @@
     <t>ru</t>
   </si>
   <si>
-    <t xml:space="preserve">{0}
+    <t>CGGallery.Title: {0}</t>
+  </si>
+  <si>
+    <t>Confirmation.No: {0}</t>
+  </si>
+  <si>
+    <t>Confirmation.Yes: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.Auto: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.Hide: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.Load: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.Log: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.QuickLoad: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.QuickSave: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.Save: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.Settings: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.Skip: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.Tips: {0}</t>
+  </si>
+  <si>
+    <t>ControlPanel.Title: {0}</t>
+  </si>
+  <si>
+    <t>ExternalScriptsBrowser.Info: {0}</t>
+  </si>
+  <si>
+    <t>ExternalScriptsBrowser.Title: {0}</t>
+  </si>
+  <si>
+    <t>General.Close: {0}</t>
+  </si>
+  <si>
+    <t>General.Return: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.ControlPanelTitleButton.ConfirmationMessage: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsFontDropdown.DefaultFontName: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsFontSizeDropdown.Default: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsFontSizeDropdown.ExtraLarge: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsFontSizeDropdown.Large: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsFontSizeDropdown.Small: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption1: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption2: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption3: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption4: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption5: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsGraphicsDropdown.GraphicOption6: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsScreenModeDropdown.ExclusiveFullScreen: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsScreenModeDropdown.FullScreenWindow: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsScreenModeDropdown.MaximizedWindow: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsScreenModeDropdown.Windowed: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsSkipModeDropdown.Everything: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameSettingsSkipModeDropdown.ReadOnly: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.GameStateSlot.EmptySlotLabel: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.SaveLoadMenu.DeleteSaveSlotMessage: {0}</t>
+  </si>
+  <si>
+    <t>Naninovel.UI.SaveLoadMenu.OverwriteSaveSlotMessage: {0}</t>
+  </si>
+  <si>
+    <t>SaveLoadMenu.Tab.Load: {0}</t>
+  </si>
+  <si>
+    <t>SaveLoadMenu.Tab.QuickLoad: {0}</t>
+  </si>
+  <si>
+    <t>SaveLoadMenu.Tab.Save: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.AutoDelay: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.Font: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.FontSize: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.Graphics: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.Language: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.MessageSpeed: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.Preview: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.PreviewText: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.Resolution: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.ScreenMode: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.SkipMode: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.Tab.Basic: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.Tab.Sound: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.Tab.Text: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.VoiceLanguage: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.VolumeEffects: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.VolumeMaster: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.VolumeMusic: {0}</t>
+  </si>
+  <si>
+    <t>SettingsMenu.VolumeVoice: {0}</t>
+  </si>
+  <si>
+    <t>TitleMenu.CGGallery: {0}</t>
+  </si>
+  <si>
+    <t>TitleMenu.Continue: {0}</t>
+  </si>
+  <si>
+    <t>TitleMenu.Exit: {0}</t>
+  </si>
+  <si>
+    <t>TitleMenu.ExternalScripts: {0}</t>
+  </si>
+  <si>
+    <t>TitleMenu.NewGame: {0}</t>
+  </si>
+  <si>
+    <t>TitleMenu.Settings: {0}</t>
+  </si>
+  <si>
+    <t>TitleMenu.Tips: {0}</t>
+  </si>
+  <si>
+    <t>VariableInput.Submit: {0}</t>
+  </si>
+  <si>
+    <t>CG GALLERY</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>HIDE</t>
+  </si>
+  <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>Q.LOAD</t>
+  </si>
+  <si>
+    <t>Q.SAVE</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>TIPS</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>Select a script to play</t>
+  </si>
+  <si>
+    <t>EXTERNAL SCRIPTS</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>Are you sure you want to quit to the title screen?\nAny unsaved game progress will be lost.</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Extra Large</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Very Low</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Ultra</t>
+  </si>
+  <si>
+    <t>Full Screen</t>
+  </si>
+  <si>
+    <t>Full Screen Window</t>
+  </si>
+  <si>
+    <t>Maximized Window</t>
+  </si>
+  <si>
+    <t>Windowed</t>
+  </si>
+  <si>
+    <t>Everything</t>
+  </si>
+  <si>
+    <t>Read Only</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete save slot?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to overwrite save slot?</t>
+  </si>
+  <si>
+    <t>Q. LOAD</t>
+  </si>
+  <si>
+    <t>Auto delay:</t>
+  </si>
+  <si>
+    <t>Font:</t>
+  </si>
+  <si>
+    <t>Font size:</t>
+  </si>
+  <si>
+    <t>Graphics:</t>
+  </si>
+  <si>
+    <t>Language:</t>
+  </si>
+  <si>
+    <t>Message speed:</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit. Nunc mollis vitae tellus a pharetra. Aenean vitae ipsum in est lobortis vulputate a blandit ipsum. Nullam in felis purus. </t>
+  </si>
+  <si>
+    <t>Resolution:</t>
+  </si>
+  <si>
+    <t>Screen mode:</t>
+  </si>
+  <si>
+    <t>Skip mode:</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>SOUND</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>Voice language:</t>
+  </si>
+  <si>
+    <t>Effects volume:</t>
+  </si>
+  <si>
+    <t>Master volume:</t>
+  </si>
+  <si>
+    <t>Music volume:</t>
+  </si>
+  <si>
+    <t>Voice volume:</t>
+  </si>
+  <si>
+    <t>CONTINUE</t>
+  </si>
+  <si>
+    <t>EXIT</t>
+  </si>
+  <si>
+    <t>NEW GAME</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>af: {0}</t>
+  </si>
+  <si>
+    <t>af-ZA: {0}</t>
+  </si>
+  <si>
+    <t>ar: {0}</t>
+  </si>
+  <si>
+    <t>ar-AE: {0}</t>
+  </si>
+  <si>
+    <t>ar-BH: {0}</t>
+  </si>
+  <si>
+    <t>ar-DZ: {0}</t>
+  </si>
+  <si>
+    <t>ar-EG: {0}</t>
+  </si>
+  <si>
+    <t>ar-IQ: {0}</t>
+  </si>
+  <si>
+    <t>ar-JO: {0}</t>
+  </si>
+  <si>
+    <t>ar-KW: {0}</t>
+  </si>
+  <si>
+    <t>ar-LB: {0}</t>
+  </si>
+  <si>
+    <t>ar-LY: {0}</t>
+  </si>
+  <si>
+    <t>ar-MA: {0}</t>
+  </si>
+  <si>
+    <t>ar-OM: {0}</t>
+  </si>
+  <si>
+    <t>ar-QA: {0}</t>
+  </si>
+  <si>
+    <t>ar-SA: {0}</t>
+  </si>
+  <si>
+    <t>ar-SY: {0}</t>
+  </si>
+  <si>
+    <t>ar-TN: {0}</t>
+  </si>
+  <si>
+    <t>ar-YE: {0}</t>
+  </si>
+  <si>
+    <t>az: {0}</t>
+  </si>
+  <si>
+    <t>az-AZ: {0}</t>
+  </si>
+  <si>
+    <t>az-Cyrl-AZ: {0}</t>
+  </si>
+  <si>
+    <t>be: {0}</t>
+  </si>
+  <si>
+    <t>be-BY: {0}</t>
+  </si>
+  <si>
+    <t>bg: {0}</t>
+  </si>
+  <si>
+    <t>bg-BG: {0}</t>
+  </si>
+  <si>
+    <t>bs-BA: {0}</t>
+  </si>
+  <si>
+    <t>ca: {0}</t>
+  </si>
+  <si>
+    <t>ca-ES: {0}</t>
+  </si>
+  <si>
+    <t>cs: {0}</t>
+  </si>
+  <si>
+    <t>cs-CZ: {0}</t>
+  </si>
+  <si>
+    <t>cy: {0}</t>
+  </si>
+  <si>
+    <t>cy-GB: {0}</t>
+  </si>
+  <si>
+    <t>da: {0}</t>
+  </si>
+  <si>
+    <t>da-DK: {0}</t>
+  </si>
+  <si>
+    <t>de: {0}</t>
+  </si>
+  <si>
+    <t>de-AT: {0}</t>
+  </si>
+  <si>
+    <t>de-CH: {0}</t>
+  </si>
+  <si>
+    <t>de-DE: {0}</t>
+  </si>
+  <si>
+    <t>de-LI: {0}</t>
+  </si>
+  <si>
+    <t>de-LU: {0}</t>
+  </si>
+  <si>
+    <t>dv: {0}</t>
+  </si>
+  <si>
+    <t>dv-MV: {0}</t>
+  </si>
+  <si>
+    <t>el: {0}</t>
+  </si>
+  <si>
+    <t>el-GR: {0}</t>
+  </si>
+  <si>
+    <t>en: {0}</t>
+  </si>
+  <si>
+    <t>en-AU: {0}</t>
+  </si>
+  <si>
+    <t>en-BZ: {0}</t>
+  </si>
+  <si>
+    <t>en-CA: {0}</t>
+  </si>
+  <si>
+    <t>en-CB: {0}</t>
+  </si>
+  <si>
+    <t>en-GB: {0}</t>
+  </si>
+  <si>
+    <t>en-IE: {0}</t>
+  </si>
+  <si>
+    <t>en-JM: {0}</t>
+  </si>
+  <si>
+    <t>en-NZ: {0}</t>
+  </si>
+  <si>
+    <t>en-PH: {0}</t>
+  </si>
+  <si>
+    <t>en-TT: {0}</t>
+  </si>
+  <si>
+    <t>en-US: {0}</t>
+  </si>
+  <si>
+    <t>en-ZA: {0}</t>
+  </si>
+  <si>
+    <t>en-ZW: {0}</t>
+  </si>
+  <si>
+    <t>eo: {0}</t>
+  </si>
+  <si>
+    <t>es: {0}</t>
+  </si>
+  <si>
+    <t>es-AR: {0}</t>
+  </si>
+  <si>
+    <t>es-BO: {0}</t>
+  </si>
+  <si>
+    <t>es-CL: {0}</t>
+  </si>
+  <si>
+    <t>es-CO: {0}</t>
+  </si>
+  <si>
+    <t>es-CR: {0}</t>
+  </si>
+  <si>
+    <t>es-DO: {0}</t>
+  </si>
+  <si>
+    <t>es-EC: {0}</t>
+  </si>
+  <si>
+    <t>es-ES: {0}</t>
+  </si>
+  <si>
+    <t>es-GT: {0}</t>
+  </si>
+  <si>
+    <t>es-HN: {0}</t>
+  </si>
+  <si>
+    <t>es-MX: {0}</t>
+  </si>
+  <si>
+    <t>es-NI: {0}</t>
+  </si>
+  <si>
+    <t>es-PA: {0}</t>
+  </si>
+  <si>
+    <t>es-PE: {0}</t>
+  </si>
+  <si>
+    <t>es-PR: {0}</t>
+  </si>
+  <si>
+    <t>es-PY: {0}</t>
+  </si>
+  <si>
+    <t>es-SV: {0}</t>
+  </si>
+  <si>
+    <t>es-UY: {0}</t>
+  </si>
+  <si>
+    <t>es-VE: {0}</t>
+  </si>
+  <si>
+    <t>et: {0}</t>
+  </si>
+  <si>
+    <t>et-EE: {0}</t>
+  </si>
+  <si>
+    <t>eu: {0}</t>
+  </si>
+  <si>
+    <t>eu-ES: {0}</t>
+  </si>
+  <si>
+    <t>fa: {0}</t>
+  </si>
+  <si>
+    <t>fa-IR: {0}</t>
+  </si>
+  <si>
+    <t>fi: {0}</t>
+  </si>
+  <si>
+    <t>fi-FI: {0}</t>
+  </si>
+  <si>
+    <t>fo: {0}</t>
+  </si>
+  <si>
+    <t>fo-FO: {0}</t>
+  </si>
+  <si>
+    <t>fr: {0}</t>
+  </si>
+  <si>
+    <t>fr-BE: {0}</t>
+  </si>
+  <si>
+    <t>fr-CA: {0}</t>
+  </si>
+  <si>
+    <t>fr-CH: {0}</t>
+  </si>
+  <si>
+    <t>fr-FR: {0}</t>
+  </si>
+  <si>
+    <t>fr-LU: {0}</t>
+  </si>
+  <si>
+    <t>fr-MC: {0}</t>
+  </si>
+  <si>
+    <t>gl: {0}</t>
+  </si>
+  <si>
+    <t>gl-ES: {0}</t>
+  </si>
+  <si>
+    <t>gu: {0}</t>
+  </si>
+  <si>
+    <t>gu-IN: {0}</t>
+  </si>
+  <si>
+    <t>he: {0}</t>
+  </si>
+  <si>
+    <t>he-IL: {0}</t>
+  </si>
+  <si>
+    <t>hi: {0}</t>
+  </si>
+  <si>
+    <t>hi-IN: {0}</t>
+  </si>
+  <si>
+    <t>hr: {0}</t>
+  </si>
+  <si>
+    <t>hr-BA: {0}</t>
+  </si>
+  <si>
+    <t>hr-HR: {0}</t>
+  </si>
+  <si>
+    <t>hu: {0}</t>
+  </si>
+  <si>
+    <t>hu-HU: {0}</t>
+  </si>
+  <si>
+    <t>hy: {0}</t>
+  </si>
+  <si>
+    <t>hy-AM: {0}</t>
+  </si>
+  <si>
+    <t>id: {0}</t>
+  </si>
+  <si>
+    <t>id-ID: {0}</t>
+  </si>
+  <si>
+    <t>is: {0}</t>
+  </si>
+  <si>
+    <t>is-IS: {0}</t>
+  </si>
+  <si>
+    <t>it: {0}</t>
+  </si>
+  <si>
+    <t>it-CH: {0}</t>
+  </si>
+  <si>
+    <t>it-IT: {0}</t>
+  </si>
+  <si>
+    <t>ja: {0}</t>
+  </si>
+  <si>
+    <t>ja-JP: {0}</t>
+  </si>
+  <si>
+    <t>ka: {0}</t>
+  </si>
+  <si>
+    <t>ka-GE: {0}</t>
+  </si>
+  <si>
+    <t>kk: {0}</t>
+  </si>
+  <si>
+    <t>kk-KZ: {0}</t>
+  </si>
+  <si>
+    <t>kn: {0}</t>
+  </si>
+  <si>
+    <t>kn-IN: {0}</t>
+  </si>
+  <si>
+    <t>ko: {0}</t>
+  </si>
+  <si>
+    <t>kok: {0}</t>
+  </si>
+  <si>
+    <t>kok-IN: {0}</t>
+  </si>
+  <si>
+    <t>ko-KR: {0}</t>
+  </si>
+  <si>
+    <t>ky: {0}</t>
+  </si>
+  <si>
+    <t>ky-KG: {0}</t>
+  </si>
+  <si>
+    <t>la: {0}</t>
+  </si>
+  <si>
+    <t>lt: {0}</t>
+  </si>
+  <si>
+    <t>lt-LT: {0}</t>
+  </si>
+  <si>
+    <t>lv: {0}</t>
+  </si>
+  <si>
+    <t>lv-LV: {0}</t>
+  </si>
+  <si>
+    <t>mi: {0}</t>
+  </si>
+  <si>
+    <t>mi-NZ: {0}</t>
+  </si>
+  <si>
+    <t>mk: {0}</t>
+  </si>
+  <si>
+    <t>mk-MK: {0}</t>
+  </si>
+  <si>
+    <t>mn: {0}</t>
+  </si>
+  <si>
+    <t>mn-MN: {0}</t>
+  </si>
+  <si>
+    <t>mr: {0}</t>
+  </si>
+  <si>
+    <t>mr-IN: {0}</t>
+  </si>
+  <si>
+    <t>ms: {0}</t>
+  </si>
+  <si>
+    <t>ms-BN: {0}</t>
+  </si>
+  <si>
+    <t>ms-MY: {0}</t>
+  </si>
+  <si>
+    <t>mt: {0}</t>
+  </si>
+  <si>
+    <t>mt-MT: {0}</t>
+  </si>
+  <si>
+    <t>nb: {0}</t>
+  </si>
+  <si>
+    <t>nb-NO: {0}</t>
+  </si>
+  <si>
+    <t>nl: {0}</t>
+  </si>
+  <si>
+    <t>nl-BE: {0}</t>
+  </si>
+  <si>
+    <t>nl-NL: {0}</t>
+  </si>
+  <si>
+    <t>nn-NO: {0}</t>
+  </si>
+  <si>
+    <t>ns: {0}</t>
+  </si>
+  <si>
+    <t>ns-ZA: {0}</t>
+  </si>
+  <si>
+    <t>pa: {0}</t>
+  </si>
+  <si>
+    <t>pa-IN: {0}</t>
+  </si>
+  <si>
+    <t>pl: {0}</t>
+  </si>
+  <si>
+    <t>pl-PL: {0}</t>
+  </si>
+  <si>
+    <t>ps: {0}</t>
+  </si>
+  <si>
+    <t>ps-AR: {0}</t>
+  </si>
+  <si>
+    <t>pt: {0}</t>
+  </si>
+  <si>
+    <t>pt-BR: {0}</t>
+  </si>
+  <si>
+    <t>pt-PT: {0}</t>
+  </si>
+  <si>
+    <t>qu: {0}</t>
+  </si>
+  <si>
+    <t>qu-BO: {0}</t>
+  </si>
+  <si>
+    <t>qu-EC: {0}</t>
+  </si>
+  <si>
+    <t>qu-PE: {0}</t>
+  </si>
+  <si>
+    <t>ro: {0}</t>
+  </si>
+  <si>
+    <t>ro-RO: {0}</t>
+  </si>
+  <si>
+    <t>ru: {0}</t>
+  </si>
+  <si>
+    <t>ru-RU: {0}</t>
+  </si>
+  <si>
+    <t>sa: {0}</t>
+  </si>
+  <si>
+    <t>sa-IN: {0}</t>
+  </si>
+  <si>
+    <t>se: {0}</t>
+  </si>
+  <si>
+    <t>se-FI: {0}</t>
+  </si>
+  <si>
+    <t>se-NO: {0}</t>
+  </si>
+  <si>
+    <t>se-SE: {0}</t>
+  </si>
+  <si>
+    <t>sk: {0}</t>
+  </si>
+  <si>
+    <t>sk-SK: {0}</t>
+  </si>
+  <si>
+    <t>sl: {0}</t>
+  </si>
+  <si>
+    <t>sl-SI: {0}</t>
+  </si>
+  <si>
+    <t>sq: {0}</t>
+  </si>
+  <si>
+    <t>sq-AL: {0}</t>
+  </si>
+  <si>
+    <t>sr-BA: {0}</t>
+  </si>
+  <si>
+    <t>sr-Cyrl-BA: {0}</t>
+  </si>
+  <si>
+    <t>sr-Cyrl-SP: {0}</t>
+  </si>
+  <si>
+    <t>sr-SP: {0}</t>
+  </si>
+  <si>
+    <t>sv: {0}</t>
+  </si>
+  <si>
+    <t>sv-FI: {0}</t>
+  </si>
+  <si>
+    <t>sv-SE: {0}</t>
+  </si>
+  <si>
+    <t>sw: {0}</t>
+  </si>
+  <si>
+    <t>sw-KE: {0}</t>
+  </si>
+  <si>
+    <t>syr: {0}</t>
+  </si>
+  <si>
+    <t>syr-SY: {0}</t>
+  </si>
+  <si>
+    <t>ta: {0}</t>
+  </si>
+  <si>
+    <t>ta-IN: {0}</t>
+  </si>
+  <si>
+    <t>te: {0}</t>
+  </si>
+  <si>
+    <t>te-IN: {0}</t>
+  </si>
+  <si>
+    <t>th: {0}</t>
+  </si>
+  <si>
+    <t>th-TH: {0}</t>
+  </si>
+  <si>
+    <t>tl: {0}</t>
+  </si>
+  <si>
+    <t>tl-PH: {0}</t>
+  </si>
+  <si>
+    <t>tn: {0}</t>
+  </si>
+  <si>
+    <t>tn-ZA: {0}</t>
+  </si>
+  <si>
+    <t>tr: {0}</t>
+  </si>
+  <si>
+    <t>tr-TR: {0}</t>
+  </si>
+  <si>
+    <t>ts: {0}</t>
+  </si>
+  <si>
+    <t>tt: {0}</t>
+  </si>
+  <si>
+    <t>tt-RU: {0}</t>
+  </si>
+  <si>
+    <t>uk: {0}</t>
+  </si>
+  <si>
+    <t>uk-UA: {0}</t>
+  </si>
+  <si>
+    <t>ur: {0}</t>
+  </si>
+  <si>
+    <t>ur-PK: {0}</t>
+  </si>
+  <si>
+    <t>uz: {0}</t>
+  </si>
+  <si>
+    <t>uz-Cyrl-UZ: {0}</t>
+  </si>
+  <si>
+    <t>uz-UZ: {0}</t>
+  </si>
+  <si>
+    <t>vi: {0}</t>
+  </si>
+  <si>
+    <t>vi-VN: {0}</t>
+  </si>
+  <si>
+    <t>xh: {0}</t>
+  </si>
+  <si>
+    <t>xh-ZA: {0}</t>
+  </si>
+  <si>
+    <t>zh: {0}</t>
+  </si>
+  <si>
+    <t>zh-CN: {0}</t>
+  </si>
+  <si>
+    <t>zh-HK: {0}</t>
+  </si>
+  <si>
+    <t>zh-MO: {0}</t>
+  </si>
+  <si>
+    <t>zh-SG: {0}</t>
+  </si>
+  <si>
+    <t>zh-TW: {0}</t>
+  </si>
+  <si>
+    <t>zu: {0}</t>
+  </si>
+  <si>
+    <t>zu-ZA: {0}</t>
+  </si>
+  <si>
+    <t>Afrikaans</t>
+  </si>
+  <si>
+    <t>Afrikaans (South Africa)</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Arabic (U.A.E.)</t>
+  </si>
+  <si>
+    <t>Arabic (Bahrain)</t>
+  </si>
+  <si>
+    <t>Arabic (Algeria)</t>
+  </si>
+  <si>
+    <t>Arabic (Egypt)</t>
+  </si>
+  <si>
+    <t>Arabic (Iraq)</t>
+  </si>
+  <si>
+    <t>Arabic (Jordan)</t>
+  </si>
+  <si>
+    <t>Arabic (Kuwait)</t>
+  </si>
+  <si>
+    <t>Arabic (Lebanon)</t>
+  </si>
+  <si>
+    <t>Arabic (Libya)</t>
+  </si>
+  <si>
+    <t>Arabic (Morocco)</t>
+  </si>
+  <si>
+    <t>Arabic (Oman)</t>
+  </si>
+  <si>
+    <t>Arabic (Qatar)</t>
+  </si>
+  <si>
+    <t>Arabic (Saudi Arabia)</t>
+  </si>
+  <si>
+    <t>Arabic (Syria)</t>
+  </si>
+  <si>
+    <t>Arabic (Tunisia)</t>
+  </si>
+  <si>
+    <t>Arabic (Yemen)</t>
+  </si>
+  <si>
+    <t>Azeri (Latin)</t>
+  </si>
+  <si>
+    <t>Azeri (Latin) (Azerbaijan)</t>
+  </si>
+  <si>
+    <t>Azeri (Cyrillic) (Azerbaijan)</t>
+  </si>
+  <si>
+    <t>Belarusian</t>
+  </si>
+  <si>
+    <t>Belarusian (Belarus)</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>Bulgarian (Bulgaria)</t>
+  </si>
+  <si>
+    <t>Bosnian (Bosnia and Herzegovina)</t>
+  </si>
+  <si>
+    <t>Catalan</t>
+  </si>
+  <si>
+    <t>Catalan (Spain)</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Czech (Czech Republic)</t>
+  </si>
+  <si>
+    <t>Welsh</t>
+  </si>
+  <si>
+    <t>Welsh (United Kingdom)</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Danish (Denmark)</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>German (Austria)</t>
+  </si>
+  <si>
+    <t>German (Switzerland)</t>
+  </si>
+  <si>
+    <t>German (Germany)</t>
+  </si>
+  <si>
+    <t>German (Liechtenstein)</t>
+  </si>
+  <si>
+    <t>German (Luxembourg)</t>
+  </si>
+  <si>
+    <t>Divehi</t>
+  </si>
+  <si>
+    <t>Divehi (Maldives)</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Greek (Greece)</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>English (Australia)</t>
+  </si>
+  <si>
+    <t>English (Belize)</t>
+  </si>
+  <si>
+    <t>English (Canada)</t>
+  </si>
+  <si>
+    <t>English (Caribbean)</t>
+  </si>
+  <si>
+    <t>English (United Kingdom)</t>
+  </si>
+  <si>
+    <t>English (Ireland)</t>
+  </si>
+  <si>
+    <t>English (Jamaica)</t>
+  </si>
+  <si>
+    <t>English (New Zealand)</t>
+  </si>
+  <si>
+    <t>English (Republic of the Philippines)</t>
+  </si>
+  <si>
+    <t>English (Trinidad and Tobago)</t>
+  </si>
+  <si>
+    <t>English (United States)</t>
+  </si>
+  <si>
+    <t>English (South Africa)</t>
+  </si>
+  <si>
+    <t>English (Zimbabwe)</t>
+  </si>
+  <si>
+    <t>Esperanto</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Spanish (Argentina)</t>
+  </si>
+  <si>
+    <t>Spanish (Bolivia)</t>
+  </si>
+  <si>
+    <t>Spanish (Chile)</t>
+  </si>
+  <si>
+    <t>Spanish (Colombia)</t>
+  </si>
+  <si>
+    <t>Spanish (Costa Rica)</t>
+  </si>
+  <si>
+    <t>Spanish (Dominican Republic)</t>
+  </si>
+  <si>
+    <t>Spanish (Ecuador)</t>
+  </si>
+  <si>
+    <t>Spanish (Spain)</t>
+  </si>
+  <si>
+    <t>Spanish (Guatemala)</t>
+  </si>
+  <si>
+    <t>Spanish (Honduras)</t>
+  </si>
+  <si>
+    <t>Spanish (Mexico)</t>
+  </si>
+  <si>
+    <t>Spanish (Nicaragua)</t>
+  </si>
+  <si>
+    <t>Spanish (Panama)</t>
+  </si>
+  <si>
+    <t>Spanish (Peru)</t>
+  </si>
+  <si>
+    <t>Spanish (Puerto Rico)</t>
+  </si>
+  <si>
+    <t>Spanish (Paraguay)</t>
+  </si>
+  <si>
+    <t>Spanish (El Salvador)</t>
+  </si>
+  <si>
+    <t>Spanish (Uruguay)</t>
+  </si>
+  <si>
+    <t>Spanish (Venezuela)</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>Estonian (Estonia)</t>
+  </si>
+  <si>
+    <t>Basque</t>
+  </si>
+  <si>
+    <t>Basque (Spain)</t>
+  </si>
+  <si>
+    <t>Farsi</t>
+  </si>
+  <si>
+    <t>Farsi (Iran)</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Finnish (Finland)</t>
+  </si>
+  <si>
+    <t>Faroese</t>
+  </si>
+  <si>
+    <t>Faroese (Faroe Islands)</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>French (Belgium)</t>
+  </si>
+  <si>
+    <t>French (Canada)</t>
+  </si>
+  <si>
+    <t>French (Switzerland)</t>
+  </si>
+  <si>
+    <t>French (France)</t>
+  </si>
+  <si>
+    <t>French (Luxembourg)</t>
+  </si>
+  <si>
+    <t>French (Principality of Monaco)</t>
+  </si>
+  <si>
+    <t>Galician</t>
+  </si>
+  <si>
+    <t>Galician (Spain)</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>Gujarati (India)</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>Hebrew (Israel)</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Hindi (India)</t>
+  </si>
+  <si>
+    <t>Croatian</t>
+  </si>
+  <si>
+    <t>Croatian (Bosnia and Herzegovina)</t>
+  </si>
+  <si>
+    <t>Croatian (Croatia)</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Hungarian (Hungary)</t>
+  </si>
+  <si>
+    <t>Armenian</t>
+  </si>
+  <si>
+    <t>Armenian (Armenia)</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Indonesian (Indonesia)</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>Icelandic (Iceland)</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Italian (Switzerland)</t>
+  </si>
+  <si>
+    <t>Italian (Italy)</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Japanese (Japan)</t>
+  </si>
+  <si>
+    <t>Georgian</t>
+  </si>
+  <si>
+    <t>Georgian (Georgia)</t>
+  </si>
+  <si>
+    <t>Kazakh</t>
+  </si>
+  <si>
+    <t>Kazakh (Kazakhstan)</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Kannada (India)</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Konkani</t>
+  </si>
+  <si>
+    <t>Konkani (India)</t>
+  </si>
+  <si>
+    <t>Korean (Korea)</t>
+  </si>
+  <si>
+    <t>Kyrgyz</t>
+  </si>
+  <si>
+    <t>Kyrgyz (Kyrgyzstan)</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+  </si>
+  <si>
+    <t>Lithuanian (Lithuania)</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>Latvian (Latvia)</t>
+  </si>
+  <si>
+    <t>Maori</t>
+  </si>
+  <si>
+    <t>Maori (New Zealand)</t>
+  </si>
+  <si>
+    <t>FYRO Macedonian</t>
+  </si>
+  <si>
+    <t>FYRO Macedonian (Former Yugoslav Republic of Macedonia)</t>
+  </si>
+  <si>
+    <t>Mongolian</t>
+  </si>
+  <si>
+    <t>Mongolian (Mongolia)</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Marathi (India)</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>Malay (Brunei Darussalam)</t>
+  </si>
+  <si>
+    <t>Malay (Malaysia)</t>
+  </si>
+  <si>
+    <t>Maltese</t>
+  </si>
+  <si>
+    <t>Maltese (Malta)</t>
+  </si>
+  <si>
+    <t>Norwegian (Bokm?l)</t>
+  </si>
+  <si>
+    <t>Norwegian (Bokm?l) (Norway)</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Dutch (Belgium)</t>
+  </si>
+  <si>
+    <t>Dutch (Netherlands)</t>
+  </si>
+  <si>
+    <t>Norwegian (Nynorsk) (Norway)</t>
+  </si>
+  <si>
+    <t>Northern Sotho</t>
+  </si>
+  <si>
+    <t>Northern Sotho (South Africa)</t>
+  </si>
+  <si>
+    <t>Punjabi</t>
+  </si>
+  <si>
+    <t>Punjabi (India)</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Polish (Poland)</t>
+  </si>
+  <si>
+    <t>Pashto</t>
+  </si>
+  <si>
+    <t>Pashto (Afghanistan)</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil)</t>
+  </si>
+  <si>
+    <t>Portuguese (Portugal)</t>
+  </si>
+  <si>
+    <t>Quechua</t>
+  </si>
+  <si>
+    <t>Quechua (Bolivia)</t>
+  </si>
+  <si>
+    <t>Quechua (Ecuador)</t>
+  </si>
+  <si>
+    <t>Quechua (Peru)</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>Romanian (Romania)</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Russian (Russia)</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>Sanskrit (India)</t>
+  </si>
+  <si>
+    <t>Sami</t>
+  </si>
+  <si>
+    <t>Sami (Finland)</t>
+  </si>
+  <si>
+    <t>Sami (Norway)</t>
+  </si>
+  <si>
+    <t>Sami (Sweden)</t>
+  </si>
+  <si>
+    <t>Slovak</t>
+  </si>
+  <si>
+    <t>Slovak (Slovakia)</t>
+  </si>
+  <si>
+    <t>Slovenian</t>
+  </si>
+  <si>
+    <t>Slovenian (Slovenia)</t>
+  </si>
+  <si>
+    <t>Albanian</t>
+  </si>
+  <si>
+    <t>Albanian (Albania)</t>
+  </si>
+  <si>
+    <t>Serbian (Latin) (Bosnia and Herzegovina)</t>
+  </si>
+  <si>
+    <t>Serbian (Cyrillic) (Bosnia and Herzegovina)</t>
+  </si>
+  <si>
+    <t>Serbian (Cyrillic) (Serbia and Montenegro)</t>
+  </si>
+  <si>
+    <t>Serbian (Latin) (Serbia and Montenegro)</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Swedish (Finland)</t>
+  </si>
+  <si>
+    <t>Swedish (Sweden)</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>Swahili (Kenya)</t>
+  </si>
+  <si>
+    <t>Syriac</t>
+  </si>
+  <si>
+    <t>Syriac (Syria)</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Tamil (India)</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Telugu (India)</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Thai (Thailand)</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
+  </si>
+  <si>
+    <t>Tagalog (Philippines)</t>
+  </si>
+  <si>
+    <t>Tswana</t>
+  </si>
+  <si>
+    <t>Tswana (South Africa)</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Turkish (Turkey)</t>
+  </si>
+  <si>
+    <t>Tsonga</t>
+  </si>
+  <si>
+    <t>Tatar</t>
+  </si>
+  <si>
+    <t>Tatar (Russia)</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>Ukrainian (Ukraine)</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Urdu (Islamic Republic of Pakistan)</t>
+  </si>
+  <si>
+    <t>Uzbek (Latin)</t>
+  </si>
+  <si>
+    <t>Uzbek (Cyrillic) (Uzbekistan)</t>
+  </si>
+  <si>
+    <t>Uzbek (Latin) (Uzbekistan)</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Vietnamese (Viet Nam)</t>
+  </si>
+  <si>
+    <t>Xhosa</t>
+  </si>
+  <si>
+    <t>Xhosa (South Africa)</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Chinese (S)</t>
+  </si>
+  <si>
+    <t>Chinese (Hong Kong)</t>
+  </si>
+  <si>
+    <t>Chinese (Macau)</t>
+  </si>
+  <si>
+    <t>Chinese (Singapore)</t>
+  </si>
+  <si>
+    <t>Chinese (T)</t>
+  </si>
+  <si>
+    <t>Zulu</t>
+  </si>
+  <si>
+    <t>Zulu (South Africa)</t>
+  </si>
+  <si>
+    <t>keyTip: {0}</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Привет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@toast {0}
 </t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>А</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>В</t>
+    <t xml:space="preserve">@test {0}
+</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -446,6 +2238,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -460,35 +2255,3434 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>603</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>604</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>601</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C234"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C21" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>390</v>
+      </c>
+      <c r="C25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>392</v>
+      </c>
+      <c r="C27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>396</v>
+      </c>
+      <c r="C31" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" t="s">
+        <v>397</v>
+      </c>
+      <c r="C32" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C35" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" t="s">
+        <v>401</v>
+      </c>
+      <c r="C36" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" t="s">
+        <v>402</v>
+      </c>
+      <c r="C37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" t="s">
+        <v>403</v>
+      </c>
+      <c r="C38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>404</v>
+      </c>
+      <c r="C39" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" t="s">
+        <v>405</v>
+      </c>
+      <c r="C40" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" t="s">
+        <v>406</v>
+      </c>
+      <c r="C41" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C43" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C44" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" t="s">
+        <v>410</v>
+      </c>
+      <c r="C45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" t="s">
+        <v>411</v>
+      </c>
+      <c r="C46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" t="s">
+        <v>412</v>
+      </c>
+      <c r="C47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>413</v>
+      </c>
+      <c r="C48" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" t="s">
+        <v>415</v>
+      </c>
+      <c r="C50" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" t="s">
+        <v>416</v>
+      </c>
+      <c r="C51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" t="s">
+        <v>418</v>
+      </c>
+      <c r="C53" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" t="s">
+        <v>419</v>
+      </c>
+      <c r="C54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" t="s">
+        <v>420</v>
+      </c>
+      <c r="C55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>421</v>
+      </c>
+      <c r="C56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>422</v>
+      </c>
+      <c r="C57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" t="s">
+        <v>423</v>
+      </c>
+      <c r="C58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" t="s">
+        <v>424</v>
+      </c>
+      <c r="C59" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s">
+        <v>425</v>
+      </c>
+      <c r="C60" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" t="s">
+        <v>426</v>
+      </c>
+      <c r="C61" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" t="s">
+        <v>428</v>
+      </c>
+      <c r="C63" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" t="s">
+        <v>429</v>
+      </c>
+      <c r="C64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65" t="s">
+        <v>430</v>
+      </c>
+      <c r="C65" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" t="s">
+        <v>431</v>
+      </c>
+      <c r="C66" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" t="s">
+        <v>432</v>
+      </c>
+      <c r="C67" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
+        <v>433</v>
+      </c>
+      <c r="C68" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>434</v>
+      </c>
+      <c r="C69" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" t="s">
+        <v>435</v>
+      </c>
+      <c r="C70" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" t="s">
+        <v>436</v>
+      </c>
+      <c r="C71" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" t="s">
+        <v>437</v>
+      </c>
+      <c r="C72" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" t="s">
+        <v>438</v>
+      </c>
+      <c r="C73" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" t="s">
+        <v>439</v>
+      </c>
+      <c r="C74" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" t="s">
+        <v>440</v>
+      </c>
+      <c r="C75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" t="s">
+        <v>441</v>
+      </c>
+      <c r="C76" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" t="s">
+        <v>442</v>
+      </c>
+      <c r="C77" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" t="s">
+        <v>443</v>
+      </c>
+      <c r="C78" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" t="s">
+        <v>444</v>
+      </c>
+      <c r="C79" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" t="s">
+        <v>445</v>
+      </c>
+      <c r="C80" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" t="s">
+        <v>446</v>
+      </c>
+      <c r="C81" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B82" t="s">
+        <v>447</v>
+      </c>
+      <c r="C82" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83" t="s">
+        <v>448</v>
+      </c>
+      <c r="C83" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" t="s">
+        <v>449</v>
+      </c>
+      <c r="C84" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" t="s">
+        <v>450</v>
+      </c>
+      <c r="C85" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86" t="s">
+        <v>451</v>
+      </c>
+      <c r="C86" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" t="s">
+        <v>452</v>
+      </c>
+      <c r="C87" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" t="s">
+        <v>453</v>
+      </c>
+      <c r="C88" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" t="s">
+        <v>454</v>
+      </c>
+      <c r="C89" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" t="s">
+        <v>455</v>
+      </c>
+      <c r="C90" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" t="s">
+        <v>456</v>
+      </c>
+      <c r="C91" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" t="s">
+        <v>457</v>
+      </c>
+      <c r="C92" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>225</v>
+      </c>
+      <c r="B93" t="s">
+        <v>458</v>
+      </c>
+      <c r="C93" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>226</v>
+      </c>
+      <c r="B94" t="s">
+        <v>459</v>
+      </c>
+      <c r="C94" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95" t="s">
+        <v>460</v>
+      </c>
+      <c r="C95" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>228</v>
+      </c>
+      <c r="B96" t="s">
+        <v>461</v>
+      </c>
+      <c r="C96" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" t="s">
+        <v>462</v>
+      </c>
+      <c r="C97" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>230</v>
+      </c>
+      <c r="B98" t="s">
+        <v>463</v>
+      </c>
+      <c r="C98" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" t="s">
+        <v>464</v>
+      </c>
+      <c r="C99" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" t="s">
+        <v>465</v>
+      </c>
+      <c r="C100" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>233</v>
+      </c>
+      <c r="B101" t="s">
+        <v>466</v>
+      </c>
+      <c r="C101" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" t="s">
+        <v>467</v>
+      </c>
+      <c r="C102" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" t="s">
+        <v>468</v>
+      </c>
+      <c r="C103" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>236</v>
+      </c>
+      <c r="B104" t="s">
+        <v>469</v>
+      </c>
+      <c r="C104" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>237</v>
+      </c>
+      <c r="B105" t="s">
+        <v>470</v>
+      </c>
+      <c r="C105" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>238</v>
+      </c>
+      <c r="B106" t="s">
+        <v>471</v>
+      </c>
+      <c r="C106" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" t="s">
+        <v>472</v>
+      </c>
+      <c r="C107" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" t="s">
+        <v>473</v>
+      </c>
+      <c r="C108" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" t="s">
+        <v>474</v>
+      </c>
+      <c r="C109" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>242</v>
+      </c>
+      <c r="B110" t="s">
+        <v>475</v>
+      </c>
+      <c r="C110" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" t="s">
+        <v>476</v>
+      </c>
+      <c r="C111" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" t="s">
+        <v>477</v>
+      </c>
+      <c r="C112" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" t="s">
+        <v>478</v>
+      </c>
+      <c r="C113" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>246</v>
+      </c>
+      <c r="B114" t="s">
+        <v>479</v>
+      </c>
+      <c r="C114" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115" t="s">
+        <v>480</v>
+      </c>
+      <c r="C115" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>248</v>
+      </c>
+      <c r="B116" t="s">
+        <v>481</v>
+      </c>
+      <c r="C116" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" t="s">
+        <v>482</v>
+      </c>
+      <c r="C117" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" t="s">
+        <v>483</v>
+      </c>
+      <c r="C118" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" t="s">
+        <v>484</v>
+      </c>
+      <c r="C119" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" t="s">
+        <v>485</v>
+      </c>
+      <c r="C120" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>253</v>
+      </c>
+      <c r="B121" t="s">
+        <v>486</v>
+      </c>
+      <c r="C121" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" t="s">
+        <v>487</v>
+      </c>
+      <c r="C122" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" t="s">
+        <v>488</v>
+      </c>
+      <c r="C123" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" t="s">
+        <v>489</v>
+      </c>
+      <c r="C124" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" t="s">
+        <v>490</v>
+      </c>
+      <c r="C125" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" t="s">
+        <v>491</v>
+      </c>
+      <c r="C126" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" t="s">
+        <v>492</v>
+      </c>
+      <c r="C127" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>260</v>
+      </c>
+      <c r="B128" t="s">
+        <v>493</v>
+      </c>
+      <c r="C128" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" t="s">
+        <v>494</v>
+      </c>
+      <c r="C129" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" t="s">
+        <v>495</v>
+      </c>
+      <c r="C130" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" t="s">
+        <v>496</v>
+      </c>
+      <c r="C131" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" t="s">
+        <v>497</v>
+      </c>
+      <c r="C132" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" t="s">
+        <v>498</v>
+      </c>
+      <c r="C133" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>499</v>
+      </c>
+      <c r="C134" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" t="s">
+        <v>500</v>
+      </c>
+      <c r="C135" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>501</v>
+      </c>
+      <c r="C136" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" t="s">
+        <v>502</v>
+      </c>
+      <c r="C137" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
+        <v>503</v>
+      </c>
+      <c r="C138" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" t="s">
+        <v>504</v>
+      </c>
+      <c r="C139" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>272</v>
+      </c>
+      <c r="B140" t="s">
+        <v>505</v>
+      </c>
+      <c r="C140" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>273</v>
+      </c>
+      <c r="B141" t="s">
+        <v>506</v>
+      </c>
+      <c r="C141" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>274</v>
+      </c>
+      <c r="B142" t="s">
+        <v>507</v>
+      </c>
+      <c r="C142" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>275</v>
+      </c>
+      <c r="B143" t="s">
+        <v>508</v>
+      </c>
+      <c r="C143" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>276</v>
+      </c>
+      <c r="B144" t="s">
+        <v>509</v>
+      </c>
+      <c r="C144" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>277</v>
+      </c>
+      <c r="B145" t="s">
+        <v>510</v>
+      </c>
+      <c r="C145" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>278</v>
+      </c>
+      <c r="B146" t="s">
+        <v>511</v>
+      </c>
+      <c r="C146" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>279</v>
+      </c>
+      <c r="B147" t="s">
+        <v>512</v>
+      </c>
+      <c r="C147" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>280</v>
+      </c>
+      <c r="B148" t="s">
+        <v>513</v>
+      </c>
+      <c r="C148" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>281</v>
+      </c>
+      <c r="B149" t="s">
+        <v>514</v>
+      </c>
+      <c r="C149" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" t="s">
+        <v>515</v>
+      </c>
+      <c r="C150" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>283</v>
+      </c>
+      <c r="B151" t="s">
+        <v>516</v>
+      </c>
+      <c r="C151" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>284</v>
+      </c>
+      <c r="B152" t="s">
+        <v>517</v>
+      </c>
+      <c r="C152" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>285</v>
+      </c>
+      <c r="B153" t="s">
+        <v>518</v>
+      </c>
+      <c r="C153" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>286</v>
+      </c>
+      <c r="B154" t="s">
+        <v>519</v>
+      </c>
+      <c r="C154" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>287</v>
+      </c>
+      <c r="B155" t="s">
+        <v>520</v>
+      </c>
+      <c r="C155" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>288</v>
+      </c>
+      <c r="B156" t="s">
+        <v>521</v>
+      </c>
+      <c r="C156" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>289</v>
+      </c>
+      <c r="B157" t="s">
+        <v>522</v>
+      </c>
+      <c r="C157" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>290</v>
+      </c>
+      <c r="B158" t="s">
+        <v>523</v>
+      </c>
+      <c r="C158" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>291</v>
+      </c>
+      <c r="B159" t="s">
+        <v>524</v>
+      </c>
+      <c r="C159" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>292</v>
+      </c>
+      <c r="B160" t="s">
+        <v>525</v>
+      </c>
+      <c r="C160" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>293</v>
+      </c>
+      <c r="B161" t="s">
+        <v>526</v>
+      </c>
+      <c r="C161" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>294</v>
+      </c>
+      <c r="B162" t="s">
+        <v>527</v>
+      </c>
+      <c r="C162" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>295</v>
+      </c>
+      <c r="B163" t="s">
+        <v>528</v>
+      </c>
+      <c r="C163" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>296</v>
+      </c>
+      <c r="B164" t="s">
+        <v>529</v>
+      </c>
+      <c r="C164" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>297</v>
+      </c>
+      <c r="B165" t="s">
+        <v>530</v>
+      </c>
+      <c r="C165" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>298</v>
+      </c>
+      <c r="B166" t="s">
+        <v>531</v>
+      </c>
+      <c r="C166" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>299</v>
+      </c>
+      <c r="B167" t="s">
+        <v>532</v>
+      </c>
+      <c r="C167" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>300</v>
+      </c>
+      <c r="B168" t="s">
+        <v>533</v>
+      </c>
+      <c r="C168" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>301</v>
+      </c>
+      <c r="B169" t="s">
+        <v>534</v>
+      </c>
+      <c r="C169" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>302</v>
+      </c>
+      <c r="B170" t="s">
+        <v>535</v>
+      </c>
+      <c r="C170" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>303</v>
+      </c>
+      <c r="B171" t="s">
+        <v>536</v>
+      </c>
+      <c r="C171" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>304</v>
+      </c>
+      <c r="B172" t="s">
+        <v>537</v>
+      </c>
+      <c r="C172" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>305</v>
+      </c>
+      <c r="B173" t="s">
+        <v>538</v>
+      </c>
+      <c r="C173" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>306</v>
+      </c>
+      <c r="B174" t="s">
+        <v>539</v>
+      </c>
+      <c r="C174" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>307</v>
+      </c>
+      <c r="B175" t="s">
+        <v>540</v>
+      </c>
+      <c r="C175" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>308</v>
+      </c>
+      <c r="B176" t="s">
+        <v>541</v>
+      </c>
+      <c r="C176" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" t="s">
+        <v>542</v>
+      </c>
+      <c r="C177" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>310</v>
+      </c>
+      <c r="B178" t="s">
+        <v>543</v>
+      </c>
+      <c r="C178" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>311</v>
+      </c>
+      <c r="B179" t="s">
+        <v>544</v>
+      </c>
+      <c r="C179" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>312</v>
+      </c>
+      <c r="B180" t="s">
+        <v>545</v>
+      </c>
+      <c r="C180" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>313</v>
+      </c>
+      <c r="B181" t="s">
+        <v>546</v>
+      </c>
+      <c r="C181" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>314</v>
+      </c>
+      <c r="B182" t="s">
+        <v>547</v>
+      </c>
+      <c r="C182" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>315</v>
+      </c>
+      <c r="B183" t="s">
+        <v>548</v>
+      </c>
+      <c r="C183" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>316</v>
+      </c>
+      <c r="B184" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>317</v>
+      </c>
+      <c r="B185" t="s">
+        <v>550</v>
+      </c>
+      <c r="C185" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>318</v>
+      </c>
+      <c r="B186" t="s">
+        <v>551</v>
+      </c>
+      <c r="C186" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>319</v>
+      </c>
+      <c r="B187" t="s">
+        <v>552</v>
+      </c>
+      <c r="C187" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>320</v>
+      </c>
+      <c r="B188" t="s">
+        <v>553</v>
+      </c>
+      <c r="C188" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>321</v>
+      </c>
+      <c r="B189" t="s">
+        <v>554</v>
+      </c>
+      <c r="C189" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>322</v>
+      </c>
+      <c r="B190" t="s">
+        <v>555</v>
+      </c>
+      <c r="C190" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>323</v>
+      </c>
+      <c r="B191" t="s">
+        <v>556</v>
+      </c>
+      <c r="C191" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>324</v>
+      </c>
+      <c r="B192" t="s">
+        <v>557</v>
+      </c>
+      <c r="C192" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>325</v>
+      </c>
+      <c r="B193" t="s">
+        <v>558</v>
+      </c>
+      <c r="C193" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>326</v>
+      </c>
+      <c r="B194" t="s">
+        <v>559</v>
+      </c>
+      <c r="C194" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>327</v>
+      </c>
+      <c r="B195" t="s">
+        <v>560</v>
+      </c>
+      <c r="C195" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>328</v>
+      </c>
+      <c r="B196" t="s">
+        <v>561</v>
+      </c>
+      <c r="C196" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>329</v>
+      </c>
+      <c r="B197" t="s">
+        <v>562</v>
+      </c>
+      <c r="C197" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>330</v>
+      </c>
+      <c r="B198" t="s">
+        <v>563</v>
+      </c>
+      <c r="C198" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>331</v>
+      </c>
+      <c r="B199" t="s">
+        <v>564</v>
+      </c>
+      <c r="C199" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>332</v>
+      </c>
+      <c r="B200" t="s">
+        <v>565</v>
+      </c>
+      <c r="C200" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>333</v>
+      </c>
+      <c r="B201" t="s">
+        <v>566</v>
+      </c>
+      <c r="C201" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>334</v>
+      </c>
+      <c r="B202" t="s">
+        <v>567</v>
+      </c>
+      <c r="C202" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>335</v>
+      </c>
+      <c r="B203" t="s">
+        <v>568</v>
+      </c>
+      <c r="C203" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>336</v>
+      </c>
+      <c r="B204" t="s">
+        <v>569</v>
+      </c>
+      <c r="C204" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>337</v>
+      </c>
+      <c r="B205" t="s">
+        <v>570</v>
+      </c>
+      <c r="C205" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>338</v>
+      </c>
+      <c r="B206" t="s">
+        <v>571</v>
+      </c>
+      <c r="C206" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>339</v>
+      </c>
+      <c r="B207" t="s">
+        <v>572</v>
+      </c>
+      <c r="C207" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>340</v>
+      </c>
+      <c r="B208" t="s">
+        <v>573</v>
+      </c>
+      <c r="C208" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>341</v>
+      </c>
+      <c r="B209" t="s">
+        <v>574</v>
+      </c>
+      <c r="C209" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>342</v>
+      </c>
+      <c r="B210" t="s">
+        <v>575</v>
+      </c>
+      <c r="C210" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>343</v>
+      </c>
+      <c r="B211" t="s">
+        <v>576</v>
+      </c>
+      <c r="C211" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>344</v>
+      </c>
+      <c r="B212" t="s">
+        <v>577</v>
+      </c>
+      <c r="C212" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>345</v>
+      </c>
+      <c r="B213" t="s">
+        <v>578</v>
+      </c>
+      <c r="C213" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>346</v>
+      </c>
+      <c r="B214" t="s">
+        <v>579</v>
+      </c>
+      <c r="C214" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>347</v>
+      </c>
+      <c r="B215" t="s">
+        <v>580</v>
+      </c>
+      <c r="C215" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>348</v>
+      </c>
+      <c r="B216" t="s">
+        <v>581</v>
+      </c>
+      <c r="C216" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>349</v>
+      </c>
+      <c r="B217" t="s">
+        <v>582</v>
+      </c>
+      <c r="C217" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>350</v>
+      </c>
+      <c r="B218" t="s">
+        <v>583</v>
+      </c>
+      <c r="C218" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>351</v>
+      </c>
+      <c r="B219" t="s">
+        <v>584</v>
+      </c>
+      <c r="C219" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>352</v>
+      </c>
+      <c r="B220" t="s">
+        <v>585</v>
+      </c>
+      <c r="C220" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>353</v>
+      </c>
+      <c r="B221" t="s">
+        <v>586</v>
+      </c>
+      <c r="C221" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>354</v>
+      </c>
+      <c r="B222" t="s">
+        <v>587</v>
+      </c>
+      <c r="C222" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>355</v>
+      </c>
+      <c r="B223" t="s">
+        <v>588</v>
+      </c>
+      <c r="C223" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>356</v>
+      </c>
+      <c r="B224" t="s">
+        <v>589</v>
+      </c>
+      <c r="C224" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>357</v>
+      </c>
+      <c r="B225" t="s">
+        <v>590</v>
+      </c>
+      <c r="C225" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>358</v>
+      </c>
+      <c r="B226" t="s">
+        <v>591</v>
+      </c>
+      <c r="C226" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>359</v>
+      </c>
+      <c r="B227" t="s">
+        <v>592</v>
+      </c>
+      <c r="C227" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>360</v>
+      </c>
+      <c r="B228" t="s">
+        <v>593</v>
+      </c>
+      <c r="C228" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>361</v>
+      </c>
+      <c r="B229" t="s">
+        <v>594</v>
+      </c>
+      <c r="C229" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>362</v>
+      </c>
+      <c r="B230" t="s">
+        <v>595</v>
+      </c>
+      <c r="C230" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>363</v>
+      </c>
+      <c r="B231" t="s">
+        <v>596</v>
+      </c>
+      <c r="C231" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>364</v>
+      </c>
+      <c r="B232" t="s">
+        <v>597</v>
+      </c>
+      <c r="C232" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>365</v>
+      </c>
+      <c r="B233" t="s">
+        <v>598</v>
+      </c>
+      <c r="C233" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>366</v>
+      </c>
+      <c r="B234" t="s">
+        <v>599</v>
+      </c>
+      <c r="C234" t="s">
+        <v>599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/LcoalizationSheets/Localization.xlsx
+++ b/Assets/LcoalizationSheets/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\Naninovel U Package\Assets\LcoalizationSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF877D3-B686-421A-B906-AA502E9E72C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432524BF-593B-4740-882D-80856F0F1F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{466C8753-8B6A-41DD-92D5-4EFA8B06EAE4}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Text&gt;DefaultUI" sheetId="8" r:id="rId2"/>
     <sheet name="Text&gt;Locales" sheetId="9" r:id="rId3"/>
     <sheet name="Text&gt;Tips" sheetId="10" r:id="rId4"/>
+    <sheet name="Scripts&gt;Test" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="622">
   <si>
     <t>Template</t>
   </si>
@@ -1850,15 +1851,72 @@
     <t>Привет</t>
   </si>
   <si>
-    <t xml:space="preserve">@toast {0}
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">@test {0}
+    <t xml:space="preserve">@hideAll
+@addChoiceBoxTitle {0}
 </t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">@addChoiceBoxOption {0} todo:"@setparameter Reputation value:+1"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@addChoiceBoxOption {0} todo:"@setparameter Reputation value:-1"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@showChoiceBox
+{0}
+</t>
+  </si>
+  <si>
+    <t>"What is the main advantage of using dependency injection in Unity?"</t>
+  </si>
+  <si>
+    <t>"It improves code maintainability and testability."</t>
+  </si>
+  <si>
+    <t>"It makes the game run faster."</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># test
+@flowButtonsHide true
+{0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}
+</t>
+  </si>
+  <si>
+    <t>@flowButtonsHide false</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>I'm test</t>
+  </si>
+  <si>
+    <t>"Какое основное преимущество использования внедрения зависимостей в Unity?"</t>
+  </si>
+  <si>
+    <t>"Это улучшает поддерживаемость и тестируемость кода."</t>
+  </si>
+  <si>
+    <t>"Это ускоряет работу игры."</t>
+  </si>
+  <si>
+    <t>Конец</t>
   </si>
 </sst>
 </file>
@@ -2231,15 +2289,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2255,7 +2314,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B2" t="s">
         <v>601</v>
@@ -2266,18 +2325,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C3" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>605</v>
+        <v>606</v>
+      </c>
+      <c r="B4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C6" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -5688,4 +5775,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/LcoalizationSheets/Localization.xlsx
+++ b/Assets/LcoalizationSheets/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\Naninovel U Package\Assets\LcoalizationSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432524BF-593B-4740-882D-80856F0F1F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B49F5-D1CC-4987-8536-751C371DC447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{466C8753-8B6A-41DD-92D5-4EFA8B06EAE4}"/>
   </bookViews>
@@ -1907,16 +1907,16 @@
     <t>I'm test</t>
   </si>
   <si>
+    <t>"Это улучшает поддерживаемость и тестируемость кода."</t>
+  </si>
+  <si>
+    <t>"Это ускоряет работу игры."</t>
+  </si>
+  <si>
+    <t>Конец</t>
+  </si>
+  <si>
     <t>"Какое основное преимущество использования внедрения зависимостей в Unity?"</t>
-  </si>
-  <si>
-    <t>"Это улучшает поддерживаемость и тестируемость кода."</t>
-  </si>
-  <si>
-    <t>"Это ускоряет работу игры."</t>
-  </si>
-  <si>
-    <t>Конец</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2292,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2331,7 @@
         <v>609</v>
       </c>
       <c r="C3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
         <v>610</v>
       </c>
       <c r="C4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>611</v>
       </c>
       <c r="C5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,7 +2364,7 @@
         <v>612</v>
       </c>
       <c r="C6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/LcoalizationSheets/Localization.xlsx
+++ b/Assets/LcoalizationSheets/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\Naninovel U Package\Assets\LcoalizationSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B49F5-D1CC-4987-8536-751C371DC447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE136E1C-4E08-42DC-8475-79BE725DF537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{466C8753-8B6A-41DD-92D5-4EFA8B06EAE4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="640">
   <si>
     <t>Template</t>
   </si>
@@ -1848,44 +1848,125 @@
     <t>Hello</t>
   </si>
   <si>
-    <t>Привет</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">{0}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@hideAll
-@addChoiceBoxTitle {0}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@addChoiceBoxOption {0} todo:"@setparameter Reputation value:+1"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@addChoiceBoxOption {0} todo:"@setparameter Reputation value:-1"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@showChoiceBox
+    <t>End</t>
+  </si>
+  <si>
+    <t>@flowButtonsHide false</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>I'm test</t>
+  </si>
+  <si>
+    <t>Конец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;@hideAll
+;@addChoiceBoxTitle "What is the main advantage of using dependency injection in Unity?"
+;@addChoiceBoxOption "It improves code maintainability and testability." todo:"@setparameter Reputation value:+1"
+;@addChoiceBoxOption "It makes the game run faster." todo:"@setparameter Reputation value:-1"
+;@showChoiceBox
 {0}
 </t>
   </si>
   <si>
-    <t>"What is the main advantage of using dependency injection in Unity?"</t>
-  </si>
-  <si>
-    <t>"It improves code maintainability and testability."</t>
-  </si>
-  <si>
-    <t>"It makes the game run faster."</t>
-  </si>
-  <si>
-    <t>End</t>
+    <t xml:space="preserve">
+{0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@showUI QuestWindow wait:false
+@createSingleQuest single title:{0} description:{1}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@completeSingleQuest single
+{0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@createMultiQuest multi title:{0} description:{1}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@addMultiQuestOption multi option:option1 description:{0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@addMultiQuestOption multi option:option2 maxProgressUnits:2 description:{0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@addMultiQuestOption multi option:option3 description:{0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@addMultiQuestOption multi option:option4 maxProgressUnits:5 description:{0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@bakeMultiQuest
+[i]
+@executeMultiQuestOption multi option:option2 value:1
+[i]
+@executeMultiQuestOption multi option:option2 value:1
+[i]
+@executeMultiQuestOption multi option:option4 value:1
+[i]
+@executeMultiQuestOption multi option:option4 value:1
+[i]
+@executeMultiQuestOption multi option:option4 value:1
+[i]
+@executeMultiQuestOption multi option:option4 value:1
+[i]
+@executeMultiQuestOption multi option:option4 value:1
+[i]
+@executeMultiQuestOption multi option:option1 value:1
+[i]
+@executeMultiQuestOption multi option:option3 value:1
+{0}
+</t>
+  </si>
+  <si>
+    <t>@stop</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>createSingleQuest</t>
+  </si>
+  <si>
+    <t>"First Single Quest"</t>
+  </si>
+  <si>
+    <t>"Complete the task by doing something specific to progress further"</t>
+  </si>
+  <si>
+    <t>completeSingleQuest</t>
+  </si>
+  <si>
+    <t>createMultiQuest</t>
+  </si>
+  <si>
+    <t>"Design Weather System Architecture."</t>
+  </si>
+  <si>
+    <t>"This task is just an example, and it can be adapted to fit different types of game development projects!"</t>
+  </si>
+  <si>
+    <t>"Research and define the structure of the weather system."</t>
+  </si>
+  <si>
+    <t>"Create weather data structures that will store weather conditions, transitions, and effects."</t>
+  </si>
+  <si>
+    <t>"Define rules for how different weather states affect the game world"</t>
   </si>
   <si>
     <t xml:space="preserve"># test
@@ -1898,25 +1979,28 @@
 </t>
   </si>
   <si>
-    <t>@flowButtonsHide false</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>I'm test</t>
-  </si>
-  <si>
-    <t>"Это улучшает поддерживаемость и тестируемость кода."</t>
-  </si>
-  <si>
-    <t>"Это ускоряет работу игры."</t>
-  </si>
-  <si>
-    <t>Конец</t>
-  </si>
-  <si>
-    <t>"Какое основное преимущество использования внедрения зависимостей в Unity?"</t>
+    <t>Начать</t>
+  </si>
+  <si>
+    <t>"Первый одиночный квест"</t>
+  </si>
+  <si>
+    <t>"Выполните задание, сделав что-то определенное, чтобы продвинуться дальше"</t>
+  </si>
+  <si>
+    <t>"Это задание - лишь пример, и его можно адаптировать под разные типы проектов по разработке игр!"</t>
+  </si>
+  <si>
+    <t>"Определите правила, как различные погодные состояния влияют на игровой мир"</t>
+  </si>
+  <si>
+    <t>"Исследуйте и определите структуру погодной системы"</t>
+  </si>
+  <si>
+    <t>"Создайте структуры данных о погоде, которые будут хранить погодные условия, переходы и эффекты"</t>
+  </si>
+  <si>
+    <t>"Разработать архитектуру погодной системы"</t>
   </si>
 </sst>
 </file>
@@ -2289,16 +2373,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="93.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2314,57 +2398,150 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B2" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="C2" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B3" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B4" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="C4" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B5" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C5" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>612</v>
       </c>
-      <c r="C6" t="s">
-        <v>620</v>
+      <c r="B8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>602</v>
+      </c>
+      <c r="B9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>613</v>
+      </c>
+      <c r="B10" t="s">
+        <v>627</v>
+      </c>
+      <c r="C10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>614</v>
+      </c>
+      <c r="B11" t="s">
+        <v>628</v>
+      </c>
+      <c r="C11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B12" t="s">
+        <v>627</v>
+      </c>
+      <c r="C12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>616</v>
+      </c>
+      <c r="B13" t="s">
+        <v>629</v>
+      </c>
+      <c r="C13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>617</v>
+      </c>
+      <c r="B14" t="s">
+        <v>603</v>
+      </c>
+      <c r="C14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -5798,29 +5975,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="B2" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="B3" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/LcoalizationSheets/Localization.xlsx
+++ b/Assets/LcoalizationSheets/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projects\Naninovel U Package\Assets\LcoalizationSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE136E1C-4E08-42DC-8475-79BE725DF537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F18E4A-7394-48AD-BE32-AA033415CA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{466C8753-8B6A-41DD-92D5-4EFA8B06EAE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{466C8753-8B6A-41DD-92D5-4EFA8B06EAE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts&gt;Main" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Text&gt;Locales" sheetId="9" r:id="rId3"/>
     <sheet name="Text&gt;Tips" sheetId="10" r:id="rId4"/>
     <sheet name="Scripts&gt;Test" sheetId="11" r:id="rId5"/>
+    <sheet name="Text&gt;Reception" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="800">
   <si>
     <t>Template</t>
   </si>
@@ -1854,9 +1855,6 @@
     <t>End</t>
   </si>
   <si>
-    <t>@flowButtonsHide false</t>
-  </si>
-  <si>
     <t>Hi</t>
   </si>
   <si>
@@ -1864,6 +1862,531 @@
   </si>
   <si>
     <t>Конец</t>
+  </si>
+  <si>
+    <t>@stop</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Начать</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>@flowContinue</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Name.0: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.DateOfBirth.0: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.RoomDescription.0: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Date.0: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Name.0: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.DateOfBirth.0: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.RoomDescription.0: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Date.0: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Name.1: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.DateOfBirth.1: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.RoomDescription.1: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Date.1: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Name.1: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.DateOfBirth.1: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.RoomDescription.1: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Date.1: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Name.2: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.DateOfBirth.2: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.RoomDescription.2: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Date.2: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Name.2: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.DateOfBirth.2: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.RoomDescription.2: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Date.2: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Name.3: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.DateOfBirth.3: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.RoomDescription.3: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Date.3: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Name.3: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.DateOfBirth.3: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.RoomDescription.3: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Date.3: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Name.4: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.DateOfBirth.4: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.RoomDescription.4: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Date.4: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Name.4: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.DateOfBirth.4: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.RoomDescription.4: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Date.4: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Name.5: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.DateOfBirth.5: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.RoomDescription.5: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Date.5: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Name.5: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.DateOfBirth.5: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.RoomDescription.5: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Date.5: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Name.6: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.DateOfBirth.6: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.RoomDescription.6: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Date.6: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Name.6: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.DateOfBirth.6: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.RoomDescription.6: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Date.6: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Name.7: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.DateOfBirth.7: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.RoomDescription.7: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Date.7: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Name.7: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.DateOfBirth.7: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.RoomDescription.7: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Date.7: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Name.8: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.DateOfBirth.8: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.RoomDescription.8: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Date.8: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Name.8: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.DateOfBirth.8: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.RoomDescription.8: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Date.8: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Name.9: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.DateOfBirth.9: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.RoomDescription.9: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Screen.Date.9: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Name.9: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.DateOfBirth.9: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.RoomDescription.9: {0}</t>
+  </si>
+  <si>
+    <t>Reception.Human.Date.9: {0}</t>
+  </si>
+  <si>
+    <t>Jane Doe -</t>
+  </si>
+  <si>
+    <t>Economy room with a backyard view</t>
+  </si>
+  <si>
+    <t>Jan 3 - Jan 5</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
+    <t>I want any economy room</t>
+  </si>
+  <si>
+    <t>Jan 3</t>
+  </si>
+  <si>
+    <t>John Smith +</t>
+  </si>
+  <si>
+    <t>Deluxe room with a city view</t>
+  </si>
+  <si>
+    <t>Feb 10 - Feb 15</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Alice Brown -</t>
+  </si>
+  <si>
+    <t>Suite room with a sea view</t>
+  </si>
+  <si>
+    <t>Mar 5 - Mar 10</t>
+  </si>
+  <si>
+    <t>Alice Brown</t>
+  </si>
+  <si>
+    <t>Mar 5 - Mar 9</t>
+  </si>
+  <si>
+    <t>Robert Black +</t>
+  </si>
+  <si>
+    <t>Standard room with a mountain view</t>
+  </si>
+  <si>
+    <t>Apr 12 - Apr 14</t>
+  </si>
+  <si>
+    <t>Robert Black</t>
+  </si>
+  <si>
+    <t>Emily White +</t>
+  </si>
+  <si>
+    <t>Premium room with a garden view</t>
+  </si>
+  <si>
+    <t>May 1 - May 5</t>
+  </si>
+  <si>
+    <t>Emily White</t>
+  </si>
+  <si>
+    <t>Daniel Green -</t>
+  </si>
+  <si>
+    <t>Standard room with a pool view</t>
+  </si>
+  <si>
+    <t>Jun 10 - Jun 15</t>
+  </si>
+  <si>
+    <t>Daniel Green</t>
+  </si>
+  <si>
+    <t>Jun 10 - Jun 16</t>
+  </si>
+  <si>
+    <t>Laura Blue -</t>
+  </si>
+  <si>
+    <t>Economy room with a city view</t>
+  </si>
+  <si>
+    <t>Jul 1 - Jul 4</t>
+  </si>
+  <si>
+    <t>Laura Blue</t>
+  </si>
+  <si>
+    <t>Economy room with a garden view</t>
+  </si>
+  <si>
+    <t>Michael Gray -</t>
+  </si>
+  <si>
+    <t>Family suite with a city view</t>
+  </si>
+  <si>
+    <t>Aug 20 - Aug 25</t>
+  </si>
+  <si>
+    <t>Michael Gray</t>
+  </si>
+  <si>
+    <t>Susan Black +</t>
+  </si>
+  <si>
+    <t>Luxury room with a mountain view</t>
+  </si>
+  <si>
+    <t>Sep 15 - Sep 18</t>
+  </si>
+  <si>
+    <t>Susan Black</t>
+  </si>
+  <si>
+    <t>Luxury room with a pool view</t>
+  </si>
+  <si>
+    <t>Kevin Yellow +</t>
+  </si>
+  <si>
+    <t>Ocean view room</t>
+  </si>
+  <si>
+    <t>Oct 5 - Oct 7</t>
+  </si>
+  <si>
+    <t>Kevin Yellow</t>
+  </si>
+  <si>
+    <t>3 янв.</t>
+  </si>
+  <si>
+    <t>Номер люкс с видом на море</t>
+  </si>
+  <si>
+    <t>Стандартный номер с видом на горы</t>
+  </si>
+  <si>
+    <t>1 мая - 5 мая</t>
+  </si>
+  <si>
+    <t>Стандартный номер с видом на бассейн</t>
+  </si>
+  <si>
+    <t>Семейный люкс с видом на город</t>
+  </si>
+  <si>
+    <t>Сьюзан Блэк +</t>
+  </si>
+  <si>
+    <t>Роскошный номер с видом на горы</t>
+  </si>
+  <si>
+    <t>Сьюзан Блэк</t>
+  </si>
+  <si>
+    <t>Роскошный номер с видом на бассейн</t>
+  </si>
+  <si>
+    <t>Номер с видом на океан</t>
+  </si>
+  <si>
+    <t>Джейн Доу -</t>
+  </si>
+  <si>
+    <t>Номер эконом-класса с видом на задний двор</t>
+  </si>
+  <si>
+    <t>3 января - 5 января</t>
+  </si>
+  <si>
+    <t>Джейн Доу</t>
+  </si>
+  <si>
+    <t>Я хочу любой номер эконом-класса</t>
+  </si>
+  <si>
+    <t>Джон Смит +</t>
+  </si>
+  <si>
+    <t>Номер Делюкс с видом на город</t>
+  </si>
+  <si>
+    <t>10 февраля - 15 февраля</t>
+  </si>
+  <si>
+    <t>Джон Смит</t>
+  </si>
+  <si>
+    <t>5 марта - 10 марта</t>
+  </si>
+  <si>
+    <t>Элис Браун</t>
+  </si>
+  <si>
+    <t>5 марта - 9 марта</t>
+  </si>
+  <si>
+    <t>Роберт Блэк +</t>
+  </si>
+  <si>
+    <t>12 апреля - 14 апреля</t>
+  </si>
+  <si>
+    <t>Роберт Блэк</t>
+  </si>
+  <si>
+    <t>Эмили Уайт +</t>
+  </si>
+  <si>
+    <t>Номер премиум с видом на сад</t>
+  </si>
+  <si>
+    <t>Эмили Уайт</t>
+  </si>
+  <si>
+    <t>Дэниел Грин -</t>
+  </si>
+  <si>
+    <t>10 июня - 15 июня</t>
+  </si>
+  <si>
+    <t>Дэниел Грин</t>
+  </si>
+  <si>
+    <t>10 июня - 16 июня</t>
+  </si>
+  <si>
+    <t>Номер эконом-класса с видом на город</t>
+  </si>
+  <si>
+    <t>Июль 1 - Июль 4</t>
+  </si>
+  <si>
+    <t>Лаура Блю</t>
+  </si>
+  <si>
+    <t>Номер эконом-класса с видом на сад</t>
+  </si>
+  <si>
+    <t>20 августа - 25 августа</t>
+  </si>
+  <si>
+    <t>Майкл Грэй</t>
+  </si>
+  <si>
+    <t>15 сентября - 18 сентября</t>
+  </si>
+  <si>
+    <t>Кевин Желтый +</t>
+  </si>
+  <si>
+    <t>5 октября - 7 октября</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
   </si>
   <si>
     <t xml:space="preserve">;@hideAll
@@ -1871,136 +2394,74 @@
 ;@addChoiceBoxOption "It improves code maintainability and testability." todo:"@setparameter Reputation value:+1"
 ;@addChoiceBoxOption "It makes the game run faster." todo:"@setparameter Reputation value:-1"
 ;@showChoiceBox
+;@printer ReceptionPrinter
 {0}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
+;@hideAll
+;@puzzle StarryNight
+@reception 7
+@if IsReceptionWin()
+    {0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@else
+    {0}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@endif
 {0}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">@showUI QuestWindow wait:false
-@createSingleQuest single title:{0} description:{1}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@completeSingleQuest single
+    <t xml:space="preserve"># test
+@flowPause
 {0}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">@createMultiQuest multi title:{0} description:{1}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@addMultiQuestOption multi option:option1 description:{0}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@addMultiQuestOption multi option:option2 maxProgressUnits:2 description:{0}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@addMultiQuestOption multi option:option3 description:{0}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@addMultiQuestOption multi option:option4 maxProgressUnits:5 description:{0}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@bakeMultiQuest
-[i]
-@executeMultiQuestOption multi option:option2 value:1
-[i]
-@executeMultiQuestOption multi option:option2 value:1
-[i]
-@executeMultiQuestOption multi option:option4 value:1
-[i]
-@executeMultiQuestOption multi option:option4 value:1
-[i]
-@executeMultiQuestOption multi option:option4 value:1
-[i]
-@executeMultiQuestOption multi option:option4 value:1
-[i]
-@executeMultiQuestOption multi option:option4 value:1
-[i]
-@executeMultiQuestOption multi option:option1 value:1
-[i]
-@executeMultiQuestOption multi option:option3 value:1
-{0}
-</t>
-  </si>
-  <si>
-    <t>@stop</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>createSingleQuest</t>
-  </si>
-  <si>
-    <t>"First Single Quest"</t>
-  </si>
-  <si>
-    <t>"Complete the task by doing something specific to progress further"</t>
-  </si>
-  <si>
-    <t>completeSingleQuest</t>
-  </si>
-  <si>
-    <t>createMultiQuest</t>
-  </si>
-  <si>
-    <t>"Design Weather System Architecture."</t>
-  </si>
-  <si>
-    <t>"This task is just an example, and it can be adapted to fit different types of game development projects!"</t>
-  </si>
-  <si>
-    <t>"Research and define the structure of the weather system."</t>
-  </si>
-  <si>
-    <t>"Create weather data structures that will store weather conditions, transitions, and effects."</t>
-  </si>
-  <si>
-    <t>"Define rules for how different weather states affect the game world"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># test
-@flowButtonsHide true
-{0}
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">{0}
 </t>
   </si>
   <si>
-    <t>Начать</t>
-  </si>
-  <si>
-    <t>"Первый одиночный квест"</t>
-  </si>
-  <si>
-    <t>"Выполните задание, сделав что-то определенное, чтобы продвинуться дальше"</t>
-  </si>
-  <si>
-    <t>"Это задание - лишь пример, и его можно адаптировать под разные типы проектов по разработке игр!"</t>
-  </si>
-  <si>
-    <t>"Определите правила, как различные погодные состояния влияют на игровой мир"</t>
-  </si>
-  <si>
-    <t>"Исследуйте и определите структуру погодной системы"</t>
-  </si>
-  <si>
-    <t>"Создайте структуры данных о погоде, которые будут хранить погодные условия, переходы и эффекты"</t>
-  </si>
-  <si>
-    <t>"Разработать архитектуру погодной системы"</t>
+    <t>15/03/1985</t>
+  </si>
+  <si>
+    <t>21/07/1992</t>
+  </si>
+  <si>
+    <t>11/11/1980</t>
+  </si>
+  <si>
+    <t>03/06/1990</t>
+  </si>
+  <si>
+    <t>09/09/1987</t>
+  </si>
+  <si>
+    <t>30/05/1983</t>
+  </si>
+  <si>
+    <t>25/12/1995</t>
+  </si>
+  <si>
+    <t>05/02/1988</t>
+  </si>
+  <si>
+    <t>18/04/1975</t>
+  </si>
+  <si>
+    <t>Номер люкс с видом на город</t>
+  </si>
+  <si>
+    <t>Майкл Грей</t>
+  </si>
+  <si>
+    <t>Кевин Желтый</t>
   </si>
 </sst>
 </file>
@@ -2037,8 +2498,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -2373,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,150 +2865,51 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B2" t="s">
         <v>608</v>
       </c>
-      <c r="B2" t="s">
-        <v>619</v>
-      </c>
       <c r="C2" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>609</v>
+        <v>783</v>
       </c>
       <c r="B3" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C3" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>610</v>
+        <v>784</v>
       </c>
       <c r="B4" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C4" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>785</v>
       </c>
       <c r="B5" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="C5" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>609</v>
-      </c>
-      <c r="B6" t="s">
-        <v>623</v>
-      </c>
-      <c r="C6" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>611</v>
-      </c>
-      <c r="B7" t="s">
-        <v>624</v>
-      </c>
-      <c r="C7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>612</v>
-      </c>
-      <c r="B8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>602</v>
-      </c>
-      <c r="B9" t="s">
-        <v>626</v>
-      </c>
-      <c r="C9" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>613</v>
-      </c>
-      <c r="B10" t="s">
-        <v>627</v>
-      </c>
-      <c r="C10" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>614</v>
-      </c>
-      <c r="B11" t="s">
-        <v>628</v>
-      </c>
-      <c r="C11" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>615</v>
-      </c>
-      <c r="B12" t="s">
-        <v>627</v>
-      </c>
-      <c r="C12" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>616</v>
-      </c>
-      <c r="B13" t="s">
-        <v>629</v>
-      </c>
-      <c r="C13" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>617</v>
-      </c>
-      <c r="B14" t="s">
-        <v>603</v>
-      </c>
-      <c r="C14" t="s">
         <v>607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -5975,10 +6343,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>630</v>
+        <v>786</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C2" t="s">
         <v>602</v>
@@ -5986,10 +6354,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>631</v>
+        <v>787</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C3" t="s">
         <v>602</v>
@@ -5997,7 +6365,916 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>604</v>
+        <v>612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
